--- a/phones.xlsx
+++ b/phones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\roman\haskell\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\roman\haskell\Optimality Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85CB1D8-0696-4004-8011-CD2810E621C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA9570-9C99-4511-86E7-FCC42CEF281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Superiolabial</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Pharyngeal</t>
   </si>
   <si>
-    <t>ɸ</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -63,54 +60,21 @@
     <t>Apical</t>
   </si>
   <si>
-    <t>θ̼</t>
-  </si>
-  <si>
-    <t>ʃ</t>
-  </si>
-  <si>
-    <t>ʂ</t>
-  </si>
-  <si>
     <t>Laminal</t>
   </si>
   <si>
     <t>s̻</t>
   </si>
   <si>
-    <t>ɕ</t>
-  </si>
-  <si>
     <t>Dorsal</t>
   </si>
   <si>
-    <t>ç</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>χ</t>
-  </si>
-  <si>
-    <t>ħ</t>
-  </si>
-  <si>
     <t>Epiglottal</t>
   </si>
   <si>
-    <t>ʢ</t>
-  </si>
-  <si>
     <t>Glottal</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>θ̪͆</t>
-  </si>
-  <si>
     <t>s̪   θ</t>
   </si>
   <si>
@@ -120,7 +84,43 @@
     <t>s̺   θ͇</t>
   </si>
   <si>
-    <t>f͇</t>
+    <t>s̠   ɕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃ    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʂ    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    f͇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    θ̪͆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    θ̼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ɸ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ħ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    χ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ʢ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h</t>
   </si>
 </sst>
 </file>
@@ -136,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,129 +547,145 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/phones.xlsx
+++ b/phones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\roman\haskell\Optimality Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA9570-9C99-4511-86E7-FCC42CEF281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAFA5FB-5305-4D3C-97BF-1067E66362BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Superiolabial</t>
   </si>
   <si>
-    <t>Dental</t>
-  </si>
-  <si>
     <t>Alveolar</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Pharyngeal</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>Inferiolabial</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Laminal</t>
   </si>
   <si>
-    <t>s̻</t>
-  </si>
-  <si>
     <t>Dorsal</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>s̪   θ</t>
   </si>
   <si>
-    <t>where symbols appear in pairs the symbol on the left is a sibilant</t>
-  </si>
-  <si>
     <t>s̺   θ͇</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t xml:space="preserve">ʃ    </t>
   </si>
   <si>
-    <t xml:space="preserve">ʂ    </t>
-  </si>
-  <si>
     <t xml:space="preserve">    ç</t>
   </si>
   <si>
@@ -121,16 +106,43 @@
   </si>
   <si>
     <t xml:space="preserve">    h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    f͆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h̪͆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s̻    </t>
+  </si>
+  <si>
+    <t>Inferiodental</t>
+  </si>
+  <si>
+    <t>Superiodental</t>
+  </si>
+  <si>
+    <t>ʂ   ɻ̝̊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,42 +539,42 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -573,87 +585,91 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -662,14 +678,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -678,14 +692,25 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
